--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094962</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9347585163873</v>
+        <v>44636.71790538468</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.9347585163873</v>
+        <v>44636.71790538468</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189391702.986774</v>
+        <v>49014015.30673923</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10174.1913333366</v>
+        <v>1127696.916354452</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19381.3411766704</v>
+        <v>2103714.122612212</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28588.4910200042</v>
+        <v>3079731.328869974</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38167.07690732114</v>
+        <v>4073146.683006524</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47658.2349158502</v>
+        <v>5049163.889264286</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57149.39292437924</v>
+        <v>6025181.095522046</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66640.5509329083</v>
+        <v>7001198.301779803</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76131.70894143735</v>
+        <v>7977215.508037561</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85622.8669499664</v>
+        <v>8953232.714295316</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95114.02495849544</v>
+        <v>9929249.920553075</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104605.1829670245</v>
+        <v>10905267.12681084</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113751.4736490482</v>
+        <v>11863886.18518982</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122985.1922098597</v>
+        <v>12839903.39144759</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>132271.2027535375</v>
+        <v>13809001.90643002</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141557.2132972152</v>
+        <v>14778100.42141245</v>
       </c>
     </row>
   </sheetData>
